--- a/stock_historical_data/1wk/JPPOWER.NS.xlsx
+++ b/stock_historical_data/1wk/JPPOWER.NS.xlsx
@@ -53467,7 +53467,9 @@
       <c r="P1000" t="n">
         <v>0</v>
       </c>
-      <c r="Q1000" t="inlineStr"/>
+      <c r="Q1000" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/JPPOWER.NS.xlsx
+++ b/stock_historical_data/1wk/JPPOWER.NS.xlsx
@@ -56525,7 +56525,9 @@
       <c r="Q1001" t="n">
         <v>0</v>
       </c>
-      <c r="R1001" t="inlineStr"/>
+      <c r="R1001" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/JPPOWER.NS.xlsx
+++ b/stock_historical_data/1wk/JPPOWER.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1001"/>
+  <dimension ref="A1:R1003"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56529,6 +56529,114 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1002">
+      <c r="A1002" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="B1002" t="n">
+        <v>19.78000068664551</v>
+      </c>
+      <c r="C1002" t="n">
+        <v>20.18000030517578</v>
+      </c>
+      <c r="D1002" t="n">
+        <v>18.64999961853027</v>
+      </c>
+      <c r="E1002" t="n">
+        <v>19.19000053405762</v>
+      </c>
+      <c r="F1002" t="n">
+        <v>19.19000053405762</v>
+      </c>
+      <c r="G1002" t="n">
+        <v>127722814</v>
+      </c>
+      <c r="H1002" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1002" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1002" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1002" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1002" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1002" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1002" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1002" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1002" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1002" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1002" t="inlineStr"/>
+    </row>
+    <row r="1003">
+      <c r="A1003" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B1003" t="n">
+        <v>19.39999961853027</v>
+      </c>
+      <c r="C1003" t="n">
+        <v>20.54000091552734</v>
+      </c>
+      <c r="D1003" t="n">
+        <v>18.89999961853027</v>
+      </c>
+      <c r="E1003" t="n">
+        <v>19.60000038146973</v>
+      </c>
+      <c r="F1003" t="n">
+        <v>19.60000038146973</v>
+      </c>
+      <c r="G1003" t="n">
+        <v>230742384</v>
+      </c>
+      <c r="H1003" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1003" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1003" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1003" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1003" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1003" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1003" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1003" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1003" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1003" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1003" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1wk/JPPOWER.NS.xlsx
+++ b/stock_historical_data/1wk/JPPOWER.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1003"/>
+  <dimension ref="A1:R1038"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3547,7 +3547,7 @@
         <v>0</v>
       </c>
       <c r="Q55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R55" t="n">
         <v>0</v>
@@ -3659,7 +3659,7 @@
         <v>0</v>
       </c>
       <c r="Q57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R57" t="n">
         <v>0</v>
@@ -3995,7 +3995,7 @@
         <v>0</v>
       </c>
       <c r="Q63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R63" t="n">
         <v>0</v>
@@ -4219,7 +4219,7 @@
         <v>0</v>
       </c>
       <c r="Q67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R67" t="n">
         <v>0</v>
@@ -4611,7 +4611,7 @@
         <v>0</v>
       </c>
       <c r="Q74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R74" t="n">
         <v>0</v>
@@ -5395,7 +5395,7 @@
         <v>0</v>
       </c>
       <c r="Q88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R88" t="n">
         <v>0</v>
@@ -56405,7 +56405,7 @@
         <v>22</v>
       </c>
       <c r="O999" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P999" t="n">
         <v>0</v>
@@ -56461,7 +56461,7 @@
         <v>23</v>
       </c>
       <c r="O1000" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1000" t="n">
         <v>0</v>
@@ -56581,7 +56581,9 @@
       <c r="Q1002" t="n">
         <v>0</v>
       </c>
-      <c r="R1002" t="inlineStr"/>
+      <c r="R1002" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1003">
       <c r="A1003" s="2" t="n">
@@ -56635,7 +56637,1829 @@
       <c r="Q1003" t="n">
         <v>0</v>
       </c>
-      <c r="R1003" t="inlineStr"/>
+      <c r="R1003" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1004">
+      <c r="A1004" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B1004" t="n">
+        <v>19.75</v>
+      </c>
+      <c r="C1004" t="n">
+        <v>20.29000091552734</v>
+      </c>
+      <c r="D1004" t="n">
+        <v>18.29999923706055</v>
+      </c>
+      <c r="E1004" t="n">
+        <v>18.56999969482422</v>
+      </c>
+      <c r="F1004" t="inlineStr"/>
+      <c r="G1004" t="n">
+        <v>156796639</v>
+      </c>
+      <c r="H1004" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1004" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1004" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1004" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1004" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1004" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1004" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1004" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1004" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1004" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1004" t="inlineStr"/>
+    </row>
+    <row r="1005">
+      <c r="A1005" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B1005" t="n">
+        <v>18.60000038146973</v>
+      </c>
+      <c r="C1005" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="D1005" t="n">
+        <v>18.3700008392334</v>
+      </c>
+      <c r="E1005" t="n">
+        <v>18.43000030517578</v>
+      </c>
+      <c r="F1005" t="inlineStr"/>
+      <c r="G1005" t="n">
+        <v>131261259</v>
+      </c>
+      <c r="H1005" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1005" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1005" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1005" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1005" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1005" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1005" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1005" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1005" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1005" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1005" t="inlineStr"/>
+    </row>
+    <row r="1006">
+      <c r="A1006" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B1006" t="n">
+        <v>18.75</v>
+      </c>
+      <c r="C1006" t="n">
+        <v>18.90999984741211</v>
+      </c>
+      <c r="D1006" t="n">
+        <v>17.86000061035156</v>
+      </c>
+      <c r="E1006" t="n">
+        <v>17.92000007629395</v>
+      </c>
+      <c r="F1006" t="inlineStr"/>
+      <c r="G1006" t="n">
+        <v>84481190</v>
+      </c>
+      <c r="H1006" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1006" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1006" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1006" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1006" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1006" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1006" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1006" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1006" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1006" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1006" t="inlineStr"/>
+    </row>
+    <row r="1007">
+      <c r="A1007" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B1007" t="n">
+        <v>17.89999961853027</v>
+      </c>
+      <c r="C1007" t="n">
+        <v>19.77000045776367</v>
+      </c>
+      <c r="D1007" t="n">
+        <v>17</v>
+      </c>
+      <c r="E1007" t="n">
+        <v>19.65999984741211</v>
+      </c>
+      <c r="F1007" t="inlineStr"/>
+      <c r="G1007" t="n">
+        <v>177361641</v>
+      </c>
+      <c r="H1007" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1007" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1007" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1007" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1007" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1007" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1007" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1007" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1007" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1007" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1007" t="inlineStr"/>
+    </row>
+    <row r="1008">
+      <c r="A1008" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B1008" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="C1008" t="n">
+        <v>20.63999938964844</v>
+      </c>
+      <c r="D1008" t="n">
+        <v>18.76000022888184</v>
+      </c>
+      <c r="E1008" t="n">
+        <v>19.79000091552734</v>
+      </c>
+      <c r="F1008" t="inlineStr"/>
+      <c r="G1008" t="n">
+        <v>265399842</v>
+      </c>
+      <c r="H1008" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1008" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1008" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1008" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1008" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1008" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1008" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1008" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1008" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1008" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1008" t="inlineStr"/>
+    </row>
+    <row r="1009">
+      <c r="A1009" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B1009" t="n">
+        <v>19.02000045776367</v>
+      </c>
+      <c r="C1009" t="n">
+        <v>19.38999938964844</v>
+      </c>
+      <c r="D1009" t="n">
+        <v>17.02000045776367</v>
+      </c>
+      <c r="E1009" t="n">
+        <v>17.53000068664551</v>
+      </c>
+      <c r="F1009" t="inlineStr"/>
+      <c r="G1009" t="n">
+        <v>243245907</v>
+      </c>
+      <c r="H1009" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1009" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1009" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1009" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1009" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1009" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1009" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1009" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1009" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1009" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1009" t="inlineStr"/>
+    </row>
+    <row r="1010">
+      <c r="A1010" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B1010" t="n">
+        <v>17.55999946594238</v>
+      </c>
+      <c r="C1010" t="n">
+        <v>18.25</v>
+      </c>
+      <c r="D1010" t="n">
+        <v>17.04999923706055</v>
+      </c>
+      <c r="E1010" t="n">
+        <v>17.65999984741211</v>
+      </c>
+      <c r="F1010" t="inlineStr"/>
+      <c r="G1010" t="n">
+        <v>113422054</v>
+      </c>
+      <c r="H1010" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1010" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1010" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1010" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1010" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1010" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1010" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1010" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1010" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1010" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1010" t="inlineStr"/>
+    </row>
+    <row r="1011">
+      <c r="A1011" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B1011" t="n">
+        <v>17.97999954223633</v>
+      </c>
+      <c r="C1011" t="n">
+        <v>19</v>
+      </c>
+      <c r="D1011" t="n">
+        <v>17.79999923706055</v>
+      </c>
+      <c r="E1011" t="n">
+        <v>18.52000045776367</v>
+      </c>
+      <c r="F1011" t="inlineStr"/>
+      <c r="G1011" t="n">
+        <v>188448022</v>
+      </c>
+      <c r="H1011" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1011" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1011" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1011" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1011" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1011" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1011" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1011" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1011" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1011" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1011" t="inlineStr"/>
+    </row>
+    <row r="1012">
+      <c r="A1012" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="B1012" t="n">
+        <v>18.57999992370605</v>
+      </c>
+      <c r="C1012" t="n">
+        <v>18.6200008392334</v>
+      </c>
+      <c r="D1012" t="n">
+        <v>17.8700008392334</v>
+      </c>
+      <c r="E1012" t="n">
+        <v>17.92000007629395</v>
+      </c>
+      <c r="F1012" t="inlineStr"/>
+      <c r="G1012" t="n">
+        <v>91689452</v>
+      </c>
+      <c r="H1012" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1012" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1012" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1012" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1012" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1012" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1012" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1012" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1012" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1012" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1012" t="inlineStr"/>
+    </row>
+    <row r="1013">
+      <c r="A1013" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="B1013" t="n">
+        <v>18.10000038146973</v>
+      </c>
+      <c r="C1013" t="n">
+        <v>18.47999954223633</v>
+      </c>
+      <c r="D1013" t="n">
+        <v>17.40999984741211</v>
+      </c>
+      <c r="E1013" t="n">
+        <v>17.46999931335449</v>
+      </c>
+      <c r="F1013" t="inlineStr"/>
+      <c r="G1013" t="n">
+        <v>114174081</v>
+      </c>
+      <c r="H1013" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1013" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1013" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1013" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1013" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1013" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1013" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1013" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1013" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1013" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1013" t="inlineStr"/>
+    </row>
+    <row r="1014">
+      <c r="A1014" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B1014" t="n">
+        <v>17.54999923706055</v>
+      </c>
+      <c r="C1014" t="n">
+        <v>17.64999961853027</v>
+      </c>
+      <c r="D1014" t="n">
+        <v>17.01000022888184</v>
+      </c>
+      <c r="E1014" t="n">
+        <v>17.30999946594238</v>
+      </c>
+      <c r="F1014" t="inlineStr"/>
+      <c r="G1014" t="n">
+        <v>71583536</v>
+      </c>
+      <c r="H1014" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1014" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1014" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1014" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1014" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1014" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1014" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1014" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1014" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1014" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1014" t="inlineStr"/>
+    </row>
+    <row r="1015">
+      <c r="A1015" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B1015" t="n">
+        <v>17.45000076293945</v>
+      </c>
+      <c r="C1015" t="n">
+        <v>17.70000076293945</v>
+      </c>
+      <c r="D1015" t="n">
+        <v>16.76000022888184</v>
+      </c>
+      <c r="E1015" t="n">
+        <v>17.02000045776367</v>
+      </c>
+      <c r="F1015" t="inlineStr"/>
+      <c r="G1015" t="n">
+        <v>84447490</v>
+      </c>
+      <c r="H1015" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1015" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1015" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1015" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1015" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1015" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1015" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1015" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1015" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1015" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1015" t="inlineStr"/>
+    </row>
+    <row r="1016">
+      <c r="A1016" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="B1016" t="n">
+        <v>17.25</v>
+      </c>
+      <c r="C1016" t="n">
+        <v>18.27000045776367</v>
+      </c>
+      <c r="D1016" t="n">
+        <v>16.75</v>
+      </c>
+      <c r="E1016" t="n">
+        <v>17.56999969482422</v>
+      </c>
+      <c r="F1016" t="inlineStr"/>
+      <c r="G1016" t="n">
+        <v>138094480</v>
+      </c>
+      <c r="H1016" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1016" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1016" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1016" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1016" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1016" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1016" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1016" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1016" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1016" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1016" t="inlineStr"/>
+    </row>
+    <row r="1017">
+      <c r="A1017" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="B1017" t="n">
+        <v>17.73999977111816</v>
+      </c>
+      <c r="C1017" t="n">
+        <v>20.79000091552734</v>
+      </c>
+      <c r="D1017" t="n">
+        <v>17.25</v>
+      </c>
+      <c r="E1017" t="n">
+        <v>19.43000030517578</v>
+      </c>
+      <c r="F1017" t="inlineStr"/>
+      <c r="G1017" t="n">
+        <v>419718458</v>
+      </c>
+      <c r="H1017" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1017" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1017" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1017" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1017" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1017" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1017" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1017" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1017" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1017" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1017" t="inlineStr"/>
+    </row>
+    <row r="1018">
+      <c r="A1018" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B1018" t="n">
+        <v>19.43000030517578</v>
+      </c>
+      <c r="C1018" t="n">
+        <v>23.77000045776367</v>
+      </c>
+      <c r="D1018" t="n">
+        <v>17.15999984741211</v>
+      </c>
+      <c r="E1018" t="n">
+        <v>22.30999946594238</v>
+      </c>
+      <c r="F1018" t="inlineStr"/>
+      <c r="G1018" t="n">
+        <v>927915587</v>
+      </c>
+      <c r="H1018" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1018" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1018" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1018" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1018" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1018" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1018" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1018" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1018" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1018" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1018" t="inlineStr"/>
+    </row>
+    <row r="1019">
+      <c r="A1019" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="B1019" t="n">
+        <v>22.39999961853027</v>
+      </c>
+      <c r="C1019" t="n">
+        <v>22.48999977111816</v>
+      </c>
+      <c r="D1019" t="n">
+        <v>19.39999961853027</v>
+      </c>
+      <c r="E1019" t="n">
+        <v>20.01000022888184</v>
+      </c>
+      <c r="F1019" t="inlineStr"/>
+      <c r="G1019" t="n">
+        <v>417589085</v>
+      </c>
+      <c r="H1019" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1019" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1019" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1019" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1019" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1019" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1019" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1019" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1019" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1019" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1019" t="inlineStr"/>
+    </row>
+    <row r="1020">
+      <c r="A1020" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="B1020" t="n">
+        <v>20.20999908447266</v>
+      </c>
+      <c r="C1020" t="n">
+        <v>20.39999961853027</v>
+      </c>
+      <c r="D1020" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="E1020" t="n">
+        <v>17.88999938964844</v>
+      </c>
+      <c r="F1020" t="inlineStr"/>
+      <c r="G1020" t="n">
+        <v>298971814</v>
+      </c>
+      <c r="H1020" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1020" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1020" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1020" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1020" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1020" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1020" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1020" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1020" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1020" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1020" t="inlineStr"/>
+    </row>
+    <row r="1021">
+      <c r="A1021" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B1021" t="n">
+        <v>17.92000007629395</v>
+      </c>
+      <c r="C1021" t="n">
+        <v>18.67000007629395</v>
+      </c>
+      <c r="D1021" t="n">
+        <v>16.94000053405762</v>
+      </c>
+      <c r="E1021" t="n">
+        <v>18.46999931335449</v>
+      </c>
+      <c r="F1021" t="inlineStr"/>
+      <c r="G1021" t="n">
+        <v>211674964</v>
+      </c>
+      <c r="H1021" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1021" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1021" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1021" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1021" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1021" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1021" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1021" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1021" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1021" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1021" t="inlineStr"/>
+    </row>
+    <row r="1022">
+      <c r="A1022" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B1022" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="C1022" t="n">
+        <v>19.47999954223633</v>
+      </c>
+      <c r="D1022" t="n">
+        <v>17.64999961853027</v>
+      </c>
+      <c r="E1022" t="n">
+        <v>17.98999977111816</v>
+      </c>
+      <c r="F1022" t="inlineStr"/>
+      <c r="G1022" t="n">
+        <v>261491588</v>
+      </c>
+      <c r="H1022" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1022" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1022" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1022" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1022" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1022" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1022" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1022" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1022" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1022" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1022" t="inlineStr"/>
+    </row>
+    <row r="1023">
+      <c r="A1023" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B1023" t="n">
+        <v>18.04999923706055</v>
+      </c>
+      <c r="C1023" t="n">
+        <v>18.20000076293945</v>
+      </c>
+      <c r="D1023" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="E1023" t="n">
+        <v>16.69000053405762</v>
+      </c>
+      <c r="F1023" t="inlineStr"/>
+      <c r="G1023" t="n">
+        <v>186210232</v>
+      </c>
+      <c r="H1023" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1023" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1023" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1023" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1023" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1023" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1023" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1023" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1023" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1023" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1023" t="inlineStr"/>
+    </row>
+    <row r="1024">
+      <c r="A1024" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B1024" t="n">
+        <v>16.77000045776367</v>
+      </c>
+      <c r="C1024" t="n">
+        <v>17.07999992370605</v>
+      </c>
+      <c r="D1024" t="n">
+        <v>16.07999992370605</v>
+      </c>
+      <c r="E1024" t="n">
+        <v>16.29999923706055</v>
+      </c>
+      <c r="F1024" t="inlineStr"/>
+      <c r="G1024" t="n">
+        <v>156167410</v>
+      </c>
+      <c r="H1024" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1024" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1024" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1024" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1024" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1024" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1024" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1024" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1024" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1024" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1024" t="inlineStr"/>
+    </row>
+    <row r="1025">
+      <c r="A1025" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B1025" t="n">
+        <v>16.86000061035156</v>
+      </c>
+      <c r="C1025" t="n">
+        <v>19.32999992370605</v>
+      </c>
+      <c r="D1025" t="n">
+        <v>16.10000038146973</v>
+      </c>
+      <c r="E1025" t="n">
+        <v>18.45999908447266</v>
+      </c>
+      <c r="F1025" t="inlineStr"/>
+      <c r="G1025" t="n">
+        <v>364543948</v>
+      </c>
+      <c r="H1025" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1025" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1025" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1025" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1025" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1025" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1025" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1025" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1025" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1025" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1025" t="inlineStr"/>
+    </row>
+    <row r="1026">
+      <c r="A1026" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B1026" t="n">
+        <v>18.45999908447266</v>
+      </c>
+      <c r="C1026" t="n">
+        <v>20.28000068664551</v>
+      </c>
+      <c r="D1026" t="n">
+        <v>18.15999984741211</v>
+      </c>
+      <c r="E1026" t="n">
+        <v>19.21999931335449</v>
+      </c>
+      <c r="F1026" t="inlineStr"/>
+      <c r="G1026" t="n">
+        <v>381549440</v>
+      </c>
+      <c r="H1026" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1026" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1026" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1026" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1026" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1026" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1026" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1026" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1026" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1026" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1026" t="inlineStr"/>
+    </row>
+    <row r="1027">
+      <c r="A1027" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B1027" t="n">
+        <v>19.13999938964844</v>
+      </c>
+      <c r="C1027" t="n">
+        <v>19.34000015258789</v>
+      </c>
+      <c r="D1027" t="n">
+        <v>18.32999992370605</v>
+      </c>
+      <c r="E1027" t="n">
+        <v>18.84000015258789</v>
+      </c>
+      <c r="F1027" t="inlineStr"/>
+      <c r="G1027" t="n">
+        <v>220849845</v>
+      </c>
+      <c r="H1027" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1027" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1027" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1027" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1027" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1027" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1027" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1027" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1027" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1027" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1027" t="inlineStr"/>
+    </row>
+    <row r="1028">
+      <c r="A1028" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B1028" t="n">
+        <v>19.04999923706055</v>
+      </c>
+      <c r="C1028" t="n">
+        <v>20.35000038146973</v>
+      </c>
+      <c r="D1028" t="n">
+        <v>17.94000053405762</v>
+      </c>
+      <c r="E1028" t="n">
+        <v>18.96999931335449</v>
+      </c>
+      <c r="F1028" t="inlineStr"/>
+      <c r="G1028" t="n">
+        <v>410991134</v>
+      </c>
+      <c r="H1028" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1028" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1028" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1028" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1028" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1028" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1028" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1028" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1028" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1028" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1028" t="inlineStr"/>
+    </row>
+    <row r="1029">
+      <c r="A1029" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="B1029" t="n">
+        <v>19.17000007629395</v>
+      </c>
+      <c r="C1029" t="n">
+        <v>19.21999931335449</v>
+      </c>
+      <c r="D1029" t="n">
+        <v>18.04999923706055</v>
+      </c>
+      <c r="E1029" t="n">
+        <v>18.1299991607666</v>
+      </c>
+      <c r="F1029" t="inlineStr"/>
+      <c r="G1029" t="n">
+        <v>122844309</v>
+      </c>
+      <c r="H1029" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1029" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1029" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1029" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1029" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1029" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1029" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1029" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1029" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1029" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1029" t="inlineStr"/>
+    </row>
+    <row r="1030">
+      <c r="A1030" s="2" t="n">
+        <v>45656</v>
+      </c>
+      <c r="B1030" t="n">
+        <v>17</v>
+      </c>
+      <c r="C1030" t="n">
+        <v>18.29999923706055</v>
+      </c>
+      <c r="D1030" t="n">
+        <v>16.76000022888184</v>
+      </c>
+      <c r="E1030" t="n">
+        <v>17.67000007629395</v>
+      </c>
+      <c r="F1030" t="inlineStr"/>
+      <c r="G1030" t="n">
+        <v>159007014</v>
+      </c>
+      <c r="H1030" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1030" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1030" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1030" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1030" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1030" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1030" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1030" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1030" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1030" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1030" t="inlineStr"/>
+    </row>
+    <row r="1031">
+      <c r="A1031" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B1031" t="n">
+        <v>17.70000076293945</v>
+      </c>
+      <c r="C1031" t="n">
+        <v>17.72999954223633</v>
+      </c>
+      <c r="D1031" t="n">
+        <v>16.04999923706055</v>
+      </c>
+      <c r="E1031" t="n">
+        <v>16.20000076293945</v>
+      </c>
+      <c r="F1031" t="inlineStr"/>
+      <c r="G1031" t="n">
+        <v>164095101</v>
+      </c>
+      <c r="H1031" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1031" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1031" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1031" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1031" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1031" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1031" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1031" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1031" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1031" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1031" t="inlineStr"/>
+    </row>
+    <row r="1032">
+      <c r="A1032" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B1032" t="n">
+        <v>16.1299991607666</v>
+      </c>
+      <c r="C1032" t="n">
+        <v>16.8799991607666</v>
+      </c>
+      <c r="D1032" t="n">
+        <v>15.42000007629395</v>
+      </c>
+      <c r="E1032" t="n">
+        <v>16.70000076293945</v>
+      </c>
+      <c r="F1032" t="inlineStr"/>
+      <c r="G1032" t="n">
+        <v>132674047</v>
+      </c>
+      <c r="H1032" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1032" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1032" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1032" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1032" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1032" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1032" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1032" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1032" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1032" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1032" t="inlineStr"/>
+    </row>
+    <row r="1033">
+      <c r="A1033" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B1033" t="n">
+        <v>16.86000061035156</v>
+      </c>
+      <c r="C1033" t="n">
+        <v>17.20000076293945</v>
+      </c>
+      <c r="D1033" t="n">
+        <v>15.92000007629395</v>
+      </c>
+      <c r="E1033" t="n">
+        <v>16.04000091552734</v>
+      </c>
+      <c r="F1033" t="inlineStr"/>
+      <c r="G1033" t="n">
+        <v>100575046</v>
+      </c>
+      <c r="H1033" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1033" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1033" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1033" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1033" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1033" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1033" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1033" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1033" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1033" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1033" t="inlineStr"/>
+    </row>
+    <row r="1034">
+      <c r="A1034" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B1034" t="n">
+        <v>15.96000003814697</v>
+      </c>
+      <c r="C1034" t="n">
+        <v>16.73999977111816</v>
+      </c>
+      <c r="D1034" t="n">
+        <v>14.35999965667725</v>
+      </c>
+      <c r="E1034" t="n">
+        <v>15.9399995803833</v>
+      </c>
+      <c r="F1034" t="inlineStr"/>
+      <c r="G1034" t="n">
+        <v>195919519</v>
+      </c>
+      <c r="H1034" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1034" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1034" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1034" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1034" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1034" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1034" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1034" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1034" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1034" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1034" t="inlineStr"/>
+    </row>
+    <row r="1035">
+      <c r="A1035" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B1035" t="n">
+        <v>15</v>
+      </c>
+      <c r="C1035" t="n">
+        <v>15.39999961853027</v>
+      </c>
+      <c r="D1035" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="E1035" t="n">
+        <v>14.94999980926514</v>
+      </c>
+      <c r="F1035" t="inlineStr"/>
+      <c r="G1035" t="n">
+        <v>138687002</v>
+      </c>
+      <c r="H1035" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1035" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1035" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1035" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1035" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1035" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1035" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1035" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1035" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1035" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1035" t="inlineStr"/>
+    </row>
+    <row r="1036">
+      <c r="A1036" s="2" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B1036" t="n">
+        <v>14.96000003814697</v>
+      </c>
+      <c r="C1036" t="n">
+        <v>15.02999973297119</v>
+      </c>
+      <c r="D1036" t="n">
+        <v>13.25</v>
+      </c>
+      <c r="E1036" t="n">
+        <v>13.46000003814697</v>
+      </c>
+      <c r="F1036" t="inlineStr"/>
+      <c r="G1036" t="n">
+        <v>130041533</v>
+      </c>
+      <c r="H1036" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1036" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1036" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1036" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1036" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1036" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1036" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1036" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1036" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1036" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1036" t="inlineStr"/>
+    </row>
+    <row r="1037">
+      <c r="A1037" s="2" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B1037" t="n">
+        <v>13.44999980926514</v>
+      </c>
+      <c r="C1037" t="n">
+        <v>14.34000015258789</v>
+      </c>
+      <c r="D1037" t="n">
+        <v>12.85000038146973</v>
+      </c>
+      <c r="E1037" t="n">
+        <v>13.92000007629395</v>
+      </c>
+      <c r="F1037" t="inlineStr"/>
+      <c r="G1037" t="n">
+        <v>144597179</v>
+      </c>
+      <c r="H1037" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1037" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1037" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1037" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1037" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1037" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1037" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1037" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1037" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1037" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1037" t="inlineStr"/>
+    </row>
+    <row r="1038">
+      <c r="A1038" s="2" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B1038" t="n">
+        <v>13.78999996185303</v>
+      </c>
+      <c r="C1038" t="n">
+        <v>14.13000011444092</v>
+      </c>
+      <c r="D1038" t="n">
+        <v>13.31999969482422</v>
+      </c>
+      <c r="E1038" t="n">
+        <v>13.35999965667725</v>
+      </c>
+      <c r="F1038" t="inlineStr"/>
+      <c r="G1038" t="n">
+        <v>94853398</v>
+      </c>
+      <c r="H1038" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1038" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1038" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1038" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1038" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1038" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1038" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1038" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1038" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1038" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1038" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/JPPOWER.NS.xlsx
+++ b/stock_historical_data/1wk/JPPOWER.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1038"/>
+  <dimension ref="A1:R1047"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5675,7 +5675,7 @@
         <v>0</v>
       </c>
       <c r="Q93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R93" t="n">
         <v>0</v>
@@ -56691,7 +56691,9 @@
       <c r="Q1004" t="n">
         <v>0</v>
       </c>
-      <c r="R1004" t="inlineStr"/>
+      <c r="R1004" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1005">
       <c r="A1005" s="2" t="n">
@@ -56743,7 +56745,9 @@
       <c r="Q1005" t="n">
         <v>2</v>
       </c>
-      <c r="R1005" t="inlineStr"/>
+      <c r="R1005" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1006">
       <c r="A1006" s="2" t="n">
@@ -56795,7 +56799,9 @@
       <c r="Q1006" t="n">
         <v>1</v>
       </c>
-      <c r="R1006" t="inlineStr"/>
+      <c r="R1006" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1007">
       <c r="A1007" s="2" t="n">
@@ -56847,7 +56853,9 @@
       <c r="Q1007" t="n">
         <v>0</v>
       </c>
-      <c r="R1007" t="inlineStr"/>
+      <c r="R1007" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1008">
       <c r="A1008" s="2" t="n">
@@ -56899,7 +56907,9 @@
       <c r="Q1008" t="n">
         <v>0</v>
       </c>
-      <c r="R1008" t="inlineStr"/>
+      <c r="R1008" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1009">
       <c r="A1009" s="2" t="n">
@@ -56951,7 +56961,9 @@
       <c r="Q1009" t="n">
         <v>0</v>
       </c>
-      <c r="R1009" t="inlineStr"/>
+      <c r="R1009" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1010">
       <c r="A1010" s="2" t="n">
@@ -57003,7 +57015,9 @@
       <c r="Q1010" t="n">
         <v>0</v>
       </c>
-      <c r="R1010" t="inlineStr"/>
+      <c r="R1010" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1011">
       <c r="A1011" s="2" t="n">
@@ -57055,7 +57069,9 @@
       <c r="Q1011" t="n">
         <v>0</v>
       </c>
-      <c r="R1011" t="inlineStr"/>
+      <c r="R1011" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1012">
       <c r="A1012" s="2" t="n">
@@ -57107,7 +57123,9 @@
       <c r="Q1012" t="n">
         <v>0</v>
       </c>
-      <c r="R1012" t="inlineStr"/>
+      <c r="R1012" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1013">
       <c r="A1013" s="2" t="n">
@@ -57159,7 +57177,9 @@
       <c r="Q1013" t="n">
         <v>1</v>
       </c>
-      <c r="R1013" t="inlineStr"/>
+      <c r="R1013" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1014">
       <c r="A1014" s="2" t="n">
@@ -57211,7 +57231,9 @@
       <c r="Q1014" t="n">
         <v>2</v>
       </c>
-      <c r="R1014" t="inlineStr"/>
+      <c r="R1014" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1015">
       <c r="A1015" s="2" t="n">
@@ -57263,7 +57285,9 @@
       <c r="Q1015" t="n">
         <v>0</v>
       </c>
-      <c r="R1015" t="inlineStr"/>
+      <c r="R1015" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1016">
       <c r="A1016" s="2" t="n">
@@ -57315,7 +57339,9 @@
       <c r="Q1016" t="n">
         <v>0</v>
       </c>
-      <c r="R1016" t="inlineStr"/>
+      <c r="R1016" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1017">
       <c r="A1017" s="2" t="n">
@@ -57367,7 +57393,9 @@
       <c r="Q1017" t="n">
         <v>0</v>
       </c>
-      <c r="R1017" t="inlineStr"/>
+      <c r="R1017" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1018">
       <c r="A1018" s="2" t="n">
@@ -57419,7 +57447,9 @@
       <c r="Q1018" t="n">
         <v>0</v>
       </c>
-      <c r="R1018" t="inlineStr"/>
+      <c r="R1018" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1019">
       <c r="A1019" s="2" t="n">
@@ -57471,7 +57501,9 @@
       <c r="Q1019" t="n">
         <v>0</v>
       </c>
-      <c r="R1019" t="inlineStr"/>
+      <c r="R1019" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1020">
       <c r="A1020" s="2" t="n">
@@ -57523,7 +57555,9 @@
       <c r="Q1020" t="n">
         <v>0</v>
       </c>
-      <c r="R1020" t="inlineStr"/>
+      <c r="R1020" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1021">
       <c r="A1021" s="2" t="n">
@@ -57575,7 +57609,9 @@
       <c r="Q1021" t="n">
         <v>0</v>
       </c>
-      <c r="R1021" t="inlineStr"/>
+      <c r="R1021" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1022">
       <c r="A1022" s="2" t="n">
@@ -57627,7 +57663,9 @@
       <c r="Q1022" t="n">
         <v>1</v>
       </c>
-      <c r="R1022" t="inlineStr"/>
+      <c r="R1022" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1023">
       <c r="A1023" s="2" t="n">
@@ -57679,7 +57717,9 @@
       <c r="Q1023" t="n">
         <v>0</v>
       </c>
-      <c r="R1023" t="inlineStr"/>
+      <c r="R1023" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1024">
       <c r="A1024" s="2" t="n">
@@ -57731,7 +57771,9 @@
       <c r="Q1024" t="n">
         <v>2</v>
       </c>
-      <c r="R1024" t="inlineStr"/>
+      <c r="R1024" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1025">
       <c r="A1025" s="2" t="n">
@@ -57783,7 +57825,9 @@
       <c r="Q1025" t="n">
         <v>0</v>
       </c>
-      <c r="R1025" t="inlineStr"/>
+      <c r="R1025" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1026">
       <c r="A1026" s="2" t="n">
@@ -57835,7 +57879,9 @@
       <c r="Q1026" t="n">
         <v>0</v>
       </c>
-      <c r="R1026" t="inlineStr"/>
+      <c r="R1026" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1027">
       <c r="A1027" s="2" t="n">
@@ -57887,7 +57933,9 @@
       <c r="Q1027" t="n">
         <v>0</v>
       </c>
-      <c r="R1027" t="inlineStr"/>
+      <c r="R1027" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1028">
       <c r="A1028" s="2" t="n">
@@ -57939,7 +57987,9 @@
       <c r="Q1028" t="n">
         <v>0</v>
       </c>
-      <c r="R1028" t="inlineStr"/>
+      <c r="R1028" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1029">
       <c r="A1029" s="2" t="n">
@@ -57991,7 +58041,9 @@
       <c r="Q1029" t="n">
         <v>0</v>
       </c>
-      <c r="R1029" t="inlineStr"/>
+      <c r="R1029" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1030">
       <c r="A1030" s="2" t="n">
@@ -58043,7 +58095,9 @@
       <c r="Q1030" t="n">
         <v>1</v>
       </c>
-      <c r="R1030" t="inlineStr"/>
+      <c r="R1030" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1031">
       <c r="A1031" s="2" t="n">
@@ -58095,7 +58149,9 @@
       <c r="Q1031" t="n">
         <v>0</v>
       </c>
-      <c r="R1031" t="inlineStr"/>
+      <c r="R1031" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1032">
       <c r="A1032" s="2" t="n">
@@ -58147,7 +58203,9 @@
       <c r="Q1032" t="n">
         <v>0</v>
       </c>
-      <c r="R1032" t="inlineStr"/>
+      <c r="R1032" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1033">
       <c r="A1033" s="2" t="n">
@@ -58199,7 +58257,9 @@
       <c r="Q1033" t="n">
         <v>0</v>
       </c>
-      <c r="R1033" t="inlineStr"/>
+      <c r="R1033" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1034">
       <c r="A1034" s="2" t="n">
@@ -58251,7 +58311,9 @@
       <c r="Q1034" t="n">
         <v>2</v>
       </c>
-      <c r="R1034" t="inlineStr"/>
+      <c r="R1034" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1035">
       <c r="A1035" s="2" t="n">
@@ -58303,7 +58365,9 @@
       <c r="Q1035" t="n">
         <v>0</v>
       </c>
-      <c r="R1035" t="inlineStr"/>
+      <c r="R1035" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1036">
       <c r="A1036" s="2" t="n">
@@ -58355,7 +58419,9 @@
       <c r="Q1036" t="n">
         <v>0</v>
       </c>
-      <c r="R1036" t="inlineStr"/>
+      <c r="R1036" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1037">
       <c r="A1037" s="2" t="n">
@@ -58407,7 +58473,9 @@
       <c r="Q1037" t="n">
         <v>0</v>
       </c>
-      <c r="R1037" t="inlineStr"/>
+      <c r="R1037" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1038">
       <c r="A1038" s="2" t="n">
@@ -58459,7 +58527,477 @@
       <c r="Q1038" t="n">
         <v>0</v>
       </c>
-      <c r="R1038" t="inlineStr"/>
+      <c r="R1038" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1039">
+      <c r="A1039" s="2" t="n">
+        <v>45719</v>
+      </c>
+      <c r="B1039" t="n">
+        <v>13.4399995803833</v>
+      </c>
+      <c r="C1039" t="n">
+        <v>14.27999973297119</v>
+      </c>
+      <c r="D1039" t="n">
+        <v>12.35999965667725</v>
+      </c>
+      <c r="E1039" t="n">
+        <v>14.14999961853027</v>
+      </c>
+      <c r="F1039" t="inlineStr"/>
+      <c r="G1039" t="n">
+        <v>180142927</v>
+      </c>
+      <c r="H1039" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1039" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1039" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1039" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1039" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1039" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1039" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1039" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1039" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1039" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1039" t="inlineStr"/>
+    </row>
+    <row r="1040">
+      <c r="A1040" s="2" t="n">
+        <v>45726</v>
+      </c>
+      <c r="B1040" t="n">
+        <v>14.19999980926514</v>
+      </c>
+      <c r="C1040" t="n">
+        <v>14.92000007629395</v>
+      </c>
+      <c r="D1040" t="n">
+        <v>13.35999965667725</v>
+      </c>
+      <c r="E1040" t="n">
+        <v>13.44999980926514</v>
+      </c>
+      <c r="F1040" t="inlineStr"/>
+      <c r="G1040" t="n">
+        <v>181014426</v>
+      </c>
+      <c r="H1040" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1040" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1040" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1040" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1040" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1040" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1040" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1040" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1040" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1040" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1040" t="inlineStr"/>
+    </row>
+    <row r="1041">
+      <c r="A1041" s="2" t="n">
+        <v>45733</v>
+      </c>
+      <c r="B1041" t="n">
+        <v>13.55000019073486</v>
+      </c>
+      <c r="C1041" t="n">
+        <v>15.19999980926514</v>
+      </c>
+      <c r="D1041" t="n">
+        <v>12.96000003814697</v>
+      </c>
+      <c r="E1041" t="n">
+        <v>14.96000003814697</v>
+      </c>
+      <c r="F1041" t="inlineStr"/>
+      <c r="G1041" t="n">
+        <v>223813146</v>
+      </c>
+      <c r="H1041" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1041" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1041" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1041" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1041" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1041" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1041" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1041" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1041" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1041" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1041" t="inlineStr"/>
+    </row>
+    <row r="1042">
+      <c r="A1042" s="2" t="n">
+        <v>45740</v>
+      </c>
+      <c r="B1042" t="n">
+        <v>15.14000034332275</v>
+      </c>
+      <c r="C1042" t="n">
+        <v>15.44999980926514</v>
+      </c>
+      <c r="D1042" t="n">
+        <v>14.05000019073486</v>
+      </c>
+      <c r="E1042" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="F1042" t="inlineStr"/>
+      <c r="G1042" t="n">
+        <v>205829882</v>
+      </c>
+      <c r="H1042" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1042" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1042" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1042" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1042" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1042" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1042" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1042" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1042" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1042" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1042" t="inlineStr"/>
+    </row>
+    <row r="1043">
+      <c r="A1043" s="2" t="n">
+        <v>45747</v>
+      </c>
+      <c r="B1043" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="C1043" t="n">
+        <v>15.35000038146973</v>
+      </c>
+      <c r="D1043" t="n">
+        <v>14.01000022888184</v>
+      </c>
+      <c r="E1043" t="n">
+        <v>14.78999996185303</v>
+      </c>
+      <c r="F1043" t="inlineStr"/>
+      <c r="G1043" t="n">
+        <v>133585970</v>
+      </c>
+      <c r="H1043" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1043" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1043" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1043" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1043" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1043" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1043" t="n">
+        <v>14</v>
+      </c>
+      <c r="O1043" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1043" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1043" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1043" t="inlineStr"/>
+    </row>
+    <row r="1044">
+      <c r="A1044" s="2" t="n">
+        <v>45754</v>
+      </c>
+      <c r="B1044" t="n">
+        <v>13.44999980926514</v>
+      </c>
+      <c r="C1044" t="n">
+        <v>14.78999996185303</v>
+      </c>
+      <c r="D1044" t="n">
+        <v>13.26000022888184</v>
+      </c>
+      <c r="E1044" t="n">
+        <v>14.51000022888184</v>
+      </c>
+      <c r="F1044" t="inlineStr"/>
+      <c r="G1044" t="n">
+        <v>124609913</v>
+      </c>
+      <c r="H1044" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1044" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1044" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1044" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1044" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1044" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1044" t="n">
+        <v>15</v>
+      </c>
+      <c r="O1044" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1044" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1044" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1044" t="inlineStr"/>
+    </row>
+    <row r="1045">
+      <c r="A1045" s="2" t="n">
+        <v>45761</v>
+      </c>
+      <c r="B1045" t="n">
+        <v>14.51000022888184</v>
+      </c>
+      <c r="C1045" t="n">
+        <v>15.88000011444092</v>
+      </c>
+      <c r="D1045" t="n">
+        <v>14.51000022888184</v>
+      </c>
+      <c r="E1045" t="n">
+        <v>15.47000026702881</v>
+      </c>
+      <c r="F1045" t="inlineStr"/>
+      <c r="G1045" t="n">
+        <v>115271871</v>
+      </c>
+      <c r="H1045" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1045" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1045" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1045" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1045" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1045" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1045" t="n">
+        <v>16</v>
+      </c>
+      <c r="O1045" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1045" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1045" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1045" t="inlineStr"/>
+    </row>
+    <row r="1046">
+      <c r="A1046" s="2" t="n">
+        <v>45768</v>
+      </c>
+      <c r="B1046" t="n">
+        <v>15.67000007629395</v>
+      </c>
+      <c r="C1046" t="n">
+        <v>16.48999977111816</v>
+      </c>
+      <c r="D1046" t="n">
+        <v>14.77999973297119</v>
+      </c>
+      <c r="E1046" t="n">
+        <v>15.0600004196167</v>
+      </c>
+      <c r="F1046" t="inlineStr"/>
+      <c r="G1046" t="n">
+        <v>176151485</v>
+      </c>
+      <c r="H1046" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1046" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1046" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1046" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1046" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1046" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1046" t="n">
+        <v>17</v>
+      </c>
+      <c r="O1046" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1046" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1046" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1046" t="inlineStr"/>
+    </row>
+    <row r="1047">
+      <c r="A1047" s="2" t="n">
+        <v>45775</v>
+      </c>
+      <c r="B1047" t="n">
+        <v>15</v>
+      </c>
+      <c r="C1047" t="n">
+        <v>15.30000019073486</v>
+      </c>
+      <c r="D1047" t="n">
+        <v>14.40999984741211</v>
+      </c>
+      <c r="E1047" t="n">
+        <v>14.53999996185303</v>
+      </c>
+      <c r="F1047" t="inlineStr"/>
+      <c r="G1047" t="n">
+        <v>65945783</v>
+      </c>
+      <c r="H1047" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1047" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1047" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1047" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1047" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1047" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1047" t="n">
+        <v>18</v>
+      </c>
+      <c r="O1047" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1047" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1047" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1047" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
